--- a/5. Other/BẢNG PHÍ BÁO GIÁ SỬA CHỮA THIẾT BỊ CAM ĐÃ Quy đổi vnd có ngày.xlsx
+++ b/5. Other/BẢNG PHÍ BÁO GIÁ SỬA CHỮA THIẾT BỊ CAM ĐÃ Quy đổi vnd có ngày.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TungNM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F89AF17-B333-4631-B691-409E29D2F1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4A4EC4-DCB0-4743-AED7-A4ED3CF8C7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TB đổi mới hết BH" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="275">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -857,6 +857,9 @@
   </si>
   <si>
     <t>Thay sang CAT1 khác version PCB không hoạt động (ID: 00320073B3)</t>
+  </si>
+  <si>
+    <t>Thay sang CAT1 (ID: 00320073B1)</t>
   </si>
 </sst>
 </file>
@@ -5749,7 +5752,7 @@
   <dimension ref="A1:AV87"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="84" zoomScaleNormal="84" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+      <selection activeCell="H63" sqref="H63:L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -8176,8 +8179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="84" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="84" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -8765,7 +8768,7 @@
         <v>67</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>155</v>
+        <v>274</v>
       </c>
       <c r="AA20" s="2"/>
     </row>

--- a/5. Other/BẢNG PHÍ BÁO GIÁ SỬA CHỮA THIẾT BỊ CAM ĐÃ Quy đổi vnd có ngày.xlsx
+++ b/5. Other/BẢNG PHÍ BÁO GIÁ SỬA CHỮA THIẾT BỊ CAM ĐÃ Quy đổi vnd có ngày.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4A4EC4-DCB0-4743-AED7-A4ED3CF8C7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50856989-7F62-41C0-A398-7086AEA08755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="276">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -859,7 +859,10 @@
     <t>Thay sang CAT1 khác version PCB không hoạt động (ID: 00320073B3)</t>
   </si>
   <si>
-    <t>Thay sang CAT1 (ID: 00320073B1)</t>
+    <t>Đã test lại trả khách</t>
+  </si>
+  <si>
+    <t>Thay sang CAT1 (ID: 00320073B1), trả ngày 18/12/2025</t>
   </si>
 </sst>
 </file>
@@ -1405,27 +1408,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1492,6 +1474,27 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2250,86 +2253,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="83" t="s">
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="85" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="87" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="88"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="81"/>
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="89" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="90"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="83"/>
     </row>
     <row r="5" spans="1:27" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="84" t="s">
         <v>254</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
       <c r="M5" s="29"/>
@@ -2365,18 +2368,18 @@
       <c r="J6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="70" t="s">
+      <c r="K6" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="87" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -2403,16 +2406,16 @@
       <c r="J7" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="12" t="s">
         <v>60</v>
       </c>
@@ -2437,16 +2440,16 @@
       <c r="J8" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="13" t="s">
         <v>98</v>
       </c>
@@ -2471,16 +2474,16 @@
       <c r="J9" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="65"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="13" t="s">
         <v>68</v>
       </c>
@@ -2505,16 +2508,16 @@
       <c r="J10" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>5</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="13" t="s">
         <v>101</v>
       </c>
@@ -2539,16 +2542,16 @@
       <c r="J11" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="65"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="13" t="s">
         <v>104</v>
       </c>
@@ -2573,16 +2576,16 @@
       <c r="J12" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
       <c r="AA12" s="2"/>
     </row>
     <row r="13" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="65"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="13" t="s">
         <v>110</v>
       </c>
@@ -2607,16 +2610,16 @@
       <c r="J13" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>8</v>
       </c>
-      <c r="B14" s="65"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="13" t="s">
         <v>120</v>
       </c>
@@ -2641,16 +2644,16 @@
       <c r="J14" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>9</v>
       </c>
-      <c r="B15" s="65"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="13" t="s">
         <v>124</v>
       </c>
@@ -2675,16 +2678,16 @@
       <c r="J15" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>10</v>
       </c>
-      <c r="B16" s="65"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="13" t="s">
         <v>137</v>
       </c>
@@ -2715,7 +2718,7 @@
       <c r="A17" s="7">
         <v>11</v>
       </c>
-      <c r="B17" s="65"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="13" t="s">
         <v>145</v>
       </c>
@@ -2746,7 +2749,7 @@
       <c r="A18" s="7">
         <v>12</v>
       </c>
-      <c r="B18" s="65"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="13" t="s">
         <v>146</v>
       </c>
@@ -2777,7 +2780,7 @@
       <c r="A19" s="7">
         <v>13</v>
       </c>
-      <c r="B19" s="65"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="7" t="s">
         <v>49</v>
       </c>
@@ -2808,7 +2811,7 @@
       <c r="A20" s="7">
         <v>14</v>
       </c>
-      <c r="B20" s="65"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="7" t="s">
         <v>62</v>
       </c>
@@ -2839,7 +2842,7 @@
       <c r="A21" s="7">
         <v>15</v>
       </c>
-      <c r="B21" s="66"/>
+      <c r="B21" s="89"/>
       <c r="C21" s="7" t="s">
         <v>106</v>
       </c>
@@ -2868,10 +2871,10 @@
     </row>
     <row r="22" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="14"/>
@@ -2880,25 +2883,25 @@
       <c r="AA22" s="2"/>
     </row>
     <row r="23" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
       <c r="AA23" s="2"/>
     </row>
     <row r="24" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
       <c r="G24" s="30"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -2913,30 +2916,30 @@
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
-      <c r="H25" s="67" t="s">
+      <c r="H25" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
       <c r="E26" s="24"/>
       <c r="F26" s="26" t="s">
         <v>227</v>
       </c>
       <c r="G26" s="26"/>
-      <c r="H26" s="68" t="s">
+      <c r="H26" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
@@ -2951,11 +2954,11 @@
         <v>229</v>
       </c>
       <c r="G27" s="21"/>
-      <c r="H27" s="69" t="s">
+      <c r="H27" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
@@ -3000,35 +3003,35 @@
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25" t="s">
         <v>226</v>
       </c>
       <c r="G32" s="25"/>
-      <c r="H32" s="63" t="s">
+      <c r="H32" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="2:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -3156,6 +3159,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="19">
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B7:B21"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="H31:J31"/>
     <mergeCell ref="K6:M15"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="A23:J23"/>
@@ -3166,15 +3178,6 @@
     <mergeCell ref="E3:M3"/>
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="B7:B21"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="H31:J31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3215,86 +3218,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="83" t="s">
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="85" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="87" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="88"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="81"/>
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="89" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="90"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="83"/>
     </row>
     <row r="5" spans="1:27" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="84" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
       <c r="M5" s="29"/>
@@ -3330,7 +3333,7 @@
       <c r="J6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="70" t="s">
+      <c r="K6" s="63" t="s">
         <v>172</v>
       </c>
       <c r="L6" s="93"/>
@@ -3697,7 +3700,7 @@
       <c r="A18" s="7">
         <v>12</v>
       </c>
-      <c r="B18" s="65"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="7" t="s">
         <v>63</v>
       </c>
@@ -3728,7 +3731,7 @@
       <c r="A19" s="7">
         <v>13</v>
       </c>
-      <c r="B19" s="65"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="7" t="s">
         <v>65</v>
       </c>
@@ -3759,7 +3762,7 @@
       <c r="A20" s="7">
         <v>14</v>
       </c>
-      <c r="B20" s="65"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="7" t="s">
         <v>83</v>
       </c>
@@ -3790,7 +3793,7 @@
       <c r="A21" s="7">
         <v>15</v>
       </c>
-      <c r="B21" s="65"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="7" t="s">
         <v>108</v>
       </c>
@@ -3821,7 +3824,7 @@
       <c r="A22" s="7">
         <v>16</v>
       </c>
-      <c r="B22" s="65"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="7" t="s">
         <v>113</v>
       </c>
@@ -3852,7 +3855,7 @@
       <c r="A23" s="7">
         <v>17</v>
       </c>
-      <c r="B23" s="65"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="7" t="s">
         <v>114</v>
       </c>
@@ -3881,10 +3884,10 @@
     </row>
     <row r="24" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="14"/>
@@ -3893,25 +3896,25 @@
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
       <c r="G26" s="30"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -3926,30 +3929,30 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="67" t="s">
+      <c r="H27" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
       <c r="E28" s="24"/>
       <c r="F28" s="26" t="s">
         <v>227</v>
       </c>
       <c r="G28" s="26"/>
-      <c r="H28" s="68" t="s">
+      <c r="H28" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
       <c r="AA28" s="2"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
@@ -3964,11 +3967,11 @@
         <v>229</v>
       </c>
       <c r="G29" s="21"/>
-      <c r="H29" s="69" t="s">
+      <c r="H29" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
@@ -4013,35 +4016,35 @@
       <c r="AA32" s="2"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
       <c r="AA33" s="2"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25" t="s">
         <v>226</v>
       </c>
       <c r="G34" s="25"/>
-      <c r="H34" s="63" t="s">
+      <c r="H34" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -4169,6 +4172,14 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="20">
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="H33:J33"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="A1:D4"/>
     <mergeCell ref="E1:M1"/>
@@ -4181,14 +4192,6 @@
     <mergeCell ref="B18:B23"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="H33:J33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -4229,91 +4232,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="83" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="84"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="77"/>
     </row>
     <row r="2" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="85" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="79"/>
     </row>
     <row r="3" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="87" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="88"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="81"/>
     </row>
     <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="89" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="83"/>
     </row>
     <row r="5" spans="1:29" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="84" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
       <c r="O5" s="29"/>
@@ -4352,11 +4355,11 @@
       <c r="L6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="70" t="s">
+      <c r="M6" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4366,7 +4369,7 @@
       <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="87" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -4394,9 +4397,9 @@
       <c r="L7" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
       <c r="AC7" s="2"/>
     </row>
     <row r="8" spans="1:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4406,7 +4409,7 @@
       <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="65"/>
+      <c r="C8" s="88"/>
       <c r="D8" s="12" t="s">
         <v>60</v>
       </c>
@@ -4432,9 +4435,9 @@
       <c r="L8" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
       <c r="AC8" s="2"/>
     </row>
     <row r="9" spans="1:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4444,7 +4447,7 @@
       <c r="B9" s="7">
         <v>3</v>
       </c>
-      <c r="C9" s="65"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="12" t="s">
         <v>94</v>
       </c>
@@ -4470,9 +4473,9 @@
       <c r="L9" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
       <c r="AC9" s="2"/>
     </row>
     <row r="10" spans="1:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4482,7 +4485,7 @@
       <c r="B10" s="7">
         <v>4</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="13" t="s">
         <v>98</v>
       </c>
@@ -4508,9 +4511,9 @@
       <c r="L10" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
       <c r="AC10" s="2"/>
     </row>
     <row r="11" spans="1:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4520,7 +4523,7 @@
       <c r="B11" s="7">
         <v>5</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="13" t="s">
         <v>68</v>
       </c>
@@ -4546,9 +4549,9 @@
       <c r="L11" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
       <c r="AC11" s="2"/>
     </row>
     <row r="12" spans="1:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4558,7 +4561,7 @@
       <c r="B12" s="7">
         <v>6</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="13" t="s">
         <v>101</v>
       </c>
@@ -4584,9 +4587,9 @@
       <c r="L12" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
       <c r="AC12" s="2"/>
     </row>
     <row r="13" spans="1:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4596,7 +4599,7 @@
       <c r="B13" s="7">
         <v>7</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="13" t="s">
         <v>103</v>
       </c>
@@ -4622,9 +4625,9 @@
       <c r="L13" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
       <c r="AC13" s="2"/>
     </row>
     <row r="14" spans="1:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4634,7 +4637,7 @@
       <c r="B14" s="7">
         <v>8</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="88"/>
       <c r="D14" s="13" t="s">
         <v>104</v>
       </c>
@@ -4660,9 +4663,9 @@
       <c r="L14" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
       <c r="AC14" s="2"/>
     </row>
     <row r="15" spans="1:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4672,7 +4675,7 @@
       <c r="B15" s="7">
         <v>9</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="13" t="s">
         <v>110</v>
       </c>
@@ -4698,9 +4701,9 @@
       <c r="L15" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
       <c r="AC15" s="2"/>
     </row>
     <row r="16" spans="1:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4710,7 +4713,7 @@
       <c r="B16" s="7">
         <v>10</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="13" t="s">
         <v>111</v>
       </c>
@@ -4736,9 +4739,9 @@
       <c r="L16" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
       <c r="AC16" s="2"/>
     </row>
     <row r="17" spans="1:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4748,7 +4751,7 @@
       <c r="B17" s="7">
         <v>11</v>
       </c>
-      <c r="C17" s="65"/>
+      <c r="C17" s="88"/>
       <c r="D17" s="13" t="s">
         <v>120</v>
       </c>
@@ -4774,9 +4777,9 @@
       <c r="L17" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
       <c r="AC17" s="2"/>
     </row>
     <row r="18" spans="1:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4786,7 +4789,7 @@
       <c r="B18" s="7">
         <v>12</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="13" t="s">
         <v>122</v>
       </c>
@@ -4812,9 +4815,9 @@
       <c r="L18" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
       <c r="AC18" s="2"/>
     </row>
     <row r="19" spans="1:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4824,7 +4827,7 @@
       <c r="B19" s="7">
         <v>13</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="13" t="s">
         <v>124</v>
       </c>
@@ -4850,9 +4853,9 @@
       <c r="L19" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
       <c r="AC19" s="2"/>
     </row>
     <row r="20" spans="1:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4862,7 +4865,7 @@
       <c r="B20" s="7">
         <v>14</v>
       </c>
-      <c r="C20" s="65"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="13" t="s">
         <v>129</v>
       </c>
@@ -4888,9 +4891,9 @@
       <c r="L20" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
       <c r="AC20" s="2"/>
     </row>
     <row r="21" spans="1:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4900,7 +4903,7 @@
       <c r="B21" s="7">
         <v>15</v>
       </c>
-      <c r="C21" s="65"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="13" t="s">
         <v>132</v>
       </c>
@@ -4926,9 +4929,9 @@
       <c r="L21" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
       <c r="AC21" s="2"/>
     </row>
     <row r="22" spans="1:29" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4938,7 +4941,7 @@
       <c r="B22" s="7">
         <v>16</v>
       </c>
-      <c r="C22" s="65"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="13" t="s">
         <v>137</v>
       </c>
@@ -4973,7 +4976,7 @@
       <c r="B23" s="7">
         <v>17</v>
       </c>
-      <c r="C23" s="65"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="13" t="s">
         <v>139</v>
       </c>
@@ -5008,7 +5011,7 @@
       <c r="B24" s="7">
         <v>18</v>
       </c>
-      <c r="C24" s="65"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="12" t="s">
         <v>140</v>
       </c>
@@ -5043,7 +5046,7 @@
       <c r="B25" s="7">
         <v>19</v>
       </c>
-      <c r="C25" s="65"/>
+      <c r="C25" s="88"/>
       <c r="D25" s="13" t="s">
         <v>145</v>
       </c>
@@ -5078,7 +5081,7 @@
       <c r="B26" s="7">
         <v>20</v>
       </c>
-      <c r="C26" s="65"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="13" t="s">
         <v>146</v>
       </c>
@@ -5110,7 +5113,7 @@
       <c r="B27" s="7">
         <v>21</v>
       </c>
-      <c r="C27" s="65"/>
+      <c r="C27" s="88"/>
       <c r="D27" s="13" t="s">
         <v>147</v>
       </c>
@@ -5142,7 +5145,7 @@
       <c r="B28" s="7">
         <v>22</v>
       </c>
-      <c r="C28" s="66"/>
+      <c r="C28" s="89"/>
       <c r="D28" s="13" t="s">
         <v>151</v>
       </c>
@@ -5174,7 +5177,7 @@
       <c r="B29" s="7">
         <v>1</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="87" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -5208,7 +5211,7 @@
       <c r="B30" s="7">
         <v>2</v>
       </c>
-      <c r="C30" s="65"/>
+      <c r="C30" s="88"/>
       <c r="D30" s="7" t="s">
         <v>49</v>
       </c>
@@ -5240,7 +5243,7 @@
       <c r="B31" s="7">
         <v>3</v>
       </c>
-      <c r="C31" s="65"/>
+      <c r="C31" s="88"/>
       <c r="D31" s="7" t="s">
         <v>62</v>
       </c>
@@ -5272,7 +5275,7 @@
       <c r="B32" s="7">
         <v>4</v>
       </c>
-      <c r="C32" s="65"/>
+      <c r="C32" s="88"/>
       <c r="D32" s="7" t="s">
         <v>106</v>
       </c>
@@ -5306,7 +5309,7 @@
       <c r="B33" s="7">
         <v>5</v>
       </c>
-      <c r="C33" s="65"/>
+      <c r="C33" s="88"/>
       <c r="D33" s="7" t="s">
         <v>115</v>
       </c>
@@ -5338,7 +5341,7 @@
       <c r="B34" s="7">
         <v>6</v>
       </c>
-      <c r="C34" s="65"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="7" t="s">
         <v>116</v>
       </c>
@@ -5370,7 +5373,7 @@
       <c r="B35" s="7">
         <v>7</v>
       </c>
-      <c r="C35" s="66"/>
+      <c r="C35" s="89"/>
       <c r="D35" s="7" t="s">
         <v>119</v>
       </c>
@@ -5400,10 +5403,10 @@
     </row>
     <row r="36" spans="2:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="14"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
       <c r="I36" s="14"/>
@@ -5413,26 +5416,26 @@
       <c r="AC36" s="2"/>
     </row>
     <row r="37" spans="2:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
       <c r="AC37" s="2"/>
     </row>
     <row r="38" spans="2:29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="19"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
       <c r="H38" s="30"/>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
@@ -5448,32 +5451,32 @@
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="67" t="s">
+      <c r="I39" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
       <c r="AC39" s="2"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
       <c r="F40" s="24"/>
       <c r="G40" s="26" t="s">
         <v>227</v>
       </c>
       <c r="H40" s="26"/>
-      <c r="I40" s="68" t="s">
+      <c r="I40" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
+      <c r="J40" s="91"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="91"/>
       <c r="AC40" s="2"/>
     </row>
     <row r="41" spans="2:29" x14ac:dyDescent="0.25">
@@ -5488,12 +5491,12 @@
         <v>229</v>
       </c>
       <c r="H41" s="21"/>
-      <c r="I41" s="69" t="s">
+      <c r="I41" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="92"/>
       <c r="AC41" s="2"/>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.25">
@@ -5541,37 +5544,37 @@
       <c r="AC44" s="2"/>
     </row>
     <row r="45" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="63"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
       <c r="AC45" s="2"/>
     </row>
     <row r="46" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25" t="s">
         <v>226</v>
       </c>
       <c r="H46" s="25"/>
-      <c r="I46" s="63" t="s">
+      <c r="I46" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="86"/>
       <c r="AC46" s="2"/>
     </row>
     <row r="47" spans="2:29" ht="17.25" x14ac:dyDescent="0.3">
@@ -5711,6 +5714,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="20">
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="I46:L46"/>
     <mergeCell ref="I39:L39"/>
     <mergeCell ref="I40:L40"/>
     <mergeCell ref="C38:G38"/>
@@ -5725,12 +5734,6 @@
     <mergeCell ref="B37:L37"/>
     <mergeCell ref="C29:C35"/>
     <mergeCell ref="B5:L5"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="I46:L46"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:A26 D7:D28">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
@@ -5782,97 +5785,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="83" t="s">
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="84"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="77"/>
     </row>
     <row r="2" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="85" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="79"/>
     </row>
     <row r="3" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="87" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="88"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="81"/>
       <c r="AP3" s="20"/>
     </row>
     <row r="4" spans="1:42" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="83"/>
     </row>
     <row r="5" spans="1:42" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="84" t="s">
         <v>232</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
       <c r="O5" s="29"/>
@@ -5914,7 +5917,7 @@
       <c r="L6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="70" t="s">
+      <c r="M6" s="63" t="s">
         <v>172</v>
       </c>
       <c r="N6" s="93"/>
@@ -7306,7 +7309,7 @@
       <c r="A45" s="7">
         <v>5</v>
       </c>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="88" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -7345,7 +7348,7 @@
       <c r="A46" s="7">
         <v>6</v>
       </c>
-      <c r="B46" s="65"/>
+      <c r="B46" s="88"/>
       <c r="C46" s="17" t="s">
         <v>62</v>
       </c>
@@ -7382,7 +7385,7 @@
       <c r="A47" s="7">
         <v>41</v>
       </c>
-      <c r="B47" s="65"/>
+      <c r="B47" s="88"/>
       <c r="C47" s="7" t="s">
         <v>63</v>
       </c>
@@ -7419,7 +7422,7 @@
       <c r="A48" s="7">
         <v>7</v>
       </c>
-      <c r="B48" s="65"/>
+      <c r="B48" s="88"/>
       <c r="C48" s="17" t="s">
         <v>65</v>
       </c>
@@ -7459,7 +7462,7 @@
       <c r="A49" s="7">
         <v>43</v>
       </c>
-      <c r="B49" s="65"/>
+      <c r="B49" s="88"/>
       <c r="C49" s="7" t="s">
         <v>83</v>
       </c>
@@ -7497,7 +7500,7 @@
       <c r="A50" s="7">
         <v>8</v>
       </c>
-      <c r="B50" s="65"/>
+      <c r="B50" s="88"/>
       <c r="C50" s="40" t="s">
         <v>106</v>
       </c>
@@ -7540,7 +7543,7 @@
       <c r="A51" s="7">
         <v>9</v>
       </c>
-      <c r="B51" s="65"/>
+      <c r="B51" s="88"/>
       <c r="C51" s="40" t="s">
         <v>108</v>
       </c>
@@ -7580,7 +7583,7 @@
       <c r="A52" s="7">
         <v>46</v>
       </c>
-      <c r="B52" s="65"/>
+      <c r="B52" s="88"/>
       <c r="C52" s="7" t="s">
         <v>113</v>
       </c>
@@ -7618,7 +7621,7 @@
       <c r="A53" s="7">
         <v>47</v>
       </c>
-      <c r="B53" s="65"/>
+      <c r="B53" s="88"/>
       <c r="C53" s="7" t="s">
         <v>114</v>
       </c>
@@ -7656,7 +7659,7 @@
       <c r="A54" s="7">
         <v>48</v>
       </c>
-      <c r="B54" s="65"/>
+      <c r="B54" s="88"/>
       <c r="C54" s="17" t="s">
         <v>115</v>
       </c>
@@ -7689,7 +7692,7 @@
       <c r="A55" s="7">
         <v>49</v>
       </c>
-      <c r="B55" s="65"/>
+      <c r="B55" s="88"/>
       <c r="C55" s="17" t="s">
         <v>116</v>
       </c>
@@ -7722,7 +7725,7 @@
       <c r="A56" s="7">
         <v>50</v>
       </c>
-      <c r="B56" s="65"/>
+      <c r="B56" s="88"/>
       <c r="C56" s="17" t="s">
         <v>119</v>
       </c>
@@ -7755,7 +7758,7 @@
       <c r="A57" s="7">
         <v>51</v>
       </c>
-      <c r="B57" s="66"/>
+      <c r="B57" s="89"/>
       <c r="C57" s="7" t="s">
         <v>76</v>
       </c>
@@ -7790,12 +7793,12 @@
     </row>
     <row r="58" spans="1:48" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
-      <c r="B58" s="71" t="s">
+      <c r="B58" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="C58" s="71"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="71"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
       <c r="F58" s="15"/>
       <c r="G58" s="33">
         <v>7133396</v>
@@ -7808,18 +7811,18 @@
       <c r="AC58" s="2"/>
     </row>
     <row r="59" spans="1:48" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="72"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
-      <c r="J59" s="72"/>
-      <c r="K59" s="72"/>
-      <c r="L59" s="72"/>
+      <c r="A59" s="65"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
       <c r="AC59" s="2"/>
       <c r="AS59" s="39" t="s">
         <v>260</v>
@@ -7827,11 +7830,11 @@
     </row>
     <row r="60" spans="1:48" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
-      <c r="B60" s="73"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
       <c r="G60" s="30"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -7848,34 +7851,34 @@
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
-      <c r="H61" s="67" t="s">
+      <c r="H61" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="90"/>
+      <c r="K61" s="90"/>
+      <c r="L61" s="90"/>
       <c r="AC61" s="2"/>
     </row>
     <row r="62" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A62" s="68" t="s">
+      <c r="A62" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="B62" s="68"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
       <c r="E62" s="24"/>
       <c r="F62" s="26" t="s">
         <v>227</v>
       </c>
       <c r="G62" s="26"/>
-      <c r="H62" s="68" t="s">
+      <c r="H62" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
+      <c r="I62" s="91"/>
+      <c r="J62" s="91"/>
+      <c r="K62" s="91"/>
+      <c r="L62" s="91"/>
       <c r="AC62" s="2"/>
     </row>
     <row r="63" spans="1:48" x14ac:dyDescent="0.25">
@@ -7890,13 +7893,13 @@
         <v>229</v>
       </c>
       <c r="G63" s="21"/>
-      <c r="H63" s="69" t="s">
+      <c r="H63" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="I63" s="69"/>
-      <c r="J63" s="69"/>
-      <c r="K63" s="69"/>
-      <c r="L63" s="69"/>
+      <c r="I63" s="92"/>
+      <c r="J63" s="92"/>
+      <c r="K63" s="92"/>
+      <c r="L63" s="92"/>
       <c r="AC63" s="2"/>
     </row>
     <row r="64" spans="1:48" x14ac:dyDescent="0.25">
@@ -7947,39 +7950,39 @@
       <c r="AC66" s="2"/>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A67" s="63"/>
-      <c r="B67" s="63"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="63"/>
+      <c r="A67" s="86"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="86"/>
       <c r="E67" s="25"/>
       <c r="F67" s="25"/>
       <c r="G67" s="25"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="63"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="63"/>
+      <c r="H67" s="86"/>
+      <c r="I67" s="86"/>
+      <c r="J67" s="86"/>
+      <c r="K67" s="86"/>
+      <c r="L67" s="86"/>
       <c r="AC67" s="2"/>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A68" s="63" t="s">
+      <c r="A68" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="86"/>
       <c r="E68" s="25"/>
       <c r="F68" s="25" t="s">
         <v>226</v>
       </c>
       <c r="G68" s="25"/>
-      <c r="H68" s="63" t="s">
+      <c r="H68" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="I68" s="63"/>
-      <c r="J68" s="63"/>
-      <c r="K68" s="63"/>
-      <c r="L68" s="63"/>
+      <c r="I68" s="86"/>
+      <c r="J68" s="86"/>
+      <c r="K68" s="86"/>
+      <c r="L68" s="86"/>
       <c r="AC68" s="2"/>
     </row>
     <row r="69" spans="1:29" ht="17.25" x14ac:dyDescent="0.3">
@@ -8142,6 +8145,12 @@
   </autoFilter>
   <dataConsolidate/>
   <mergeCells count="20">
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="H68:L68"/>
     <mergeCell ref="H61:L61"/>
     <mergeCell ref="H62:L62"/>
     <mergeCell ref="A5:L5"/>
@@ -8156,12 +8165,6 @@
     <mergeCell ref="B7:B44"/>
     <mergeCell ref="B58:E58"/>
     <mergeCell ref="A59:L59"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="H68:L68"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -8180,7 +8183,7 @@
   <dimension ref="A1:AA55"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="84" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29:J29"/>
+      <selection activeCell="A5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -8204,86 +8207,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="83" t="s">
+      <c r="A1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="84"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="77"/>
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="85" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="79"/>
     </row>
     <row r="3" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="87" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="88"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="81"/>
     </row>
     <row r="4" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="89" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="90"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="83"/>
     </row>
     <row r="5" spans="1:27" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
       <c r="M5" s="29"/>
@@ -8319,11 +8322,11 @@
       <c r="J6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="70" t="s">
+      <c r="K6" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8355,9 +8358,9 @@
       <c r="J7" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
       <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8389,9 +8392,9 @@
       <c r="J8" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
       <c r="AA8" s="2"/>
     </row>
     <row r="9" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8423,9 +8426,9 @@
       <c r="J9" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
       <c r="AA9" s="2"/>
     </row>
     <row r="10" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8457,9 +8460,9 @@
       <c r="J10" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
       <c r="AA10" s="2"/>
     </row>
     <row r="11" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -8762,13 +8765,13 @@
         <v>150</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>67</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA20" s="2"/>
     </row>
@@ -8931,10 +8934,10 @@
     </row>
     <row r="26" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="14"/>
@@ -8943,25 +8946,25 @@
       <c r="AA26" s="2"/>
     </row>
     <row r="27" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
       <c r="G28" s="30"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -8976,30 +8979,30 @@
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
-      <c r="H29" s="67" t="s">
+      <c r="H29" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
       <c r="AA29" s="2"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
       <c r="E30" s="24"/>
       <c r="F30" s="26" t="s">
         <v>227</v>
       </c>
       <c r="G30" s="26"/>
-      <c r="H30" s="68" t="s">
+      <c r="H30" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
       <c r="AA30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
@@ -9014,11 +9017,11 @@
         <v>229</v>
       </c>
       <c r="G31" s="21"/>
-      <c r="H31" s="69" t="s">
+      <c r="H31" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
       <c r="AA31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
@@ -9063,35 +9066,35 @@
       <c r="AA34" s="2"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
       <c r="AA35" s="2"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25" t="s">
         <v>226</v>
       </c>
       <c r="G36" s="25"/>
-      <c r="H36" s="63" t="s">
+      <c r="H36" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
       <c r="AA36" s="2"/>
     </row>
     <row r="37" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
@@ -9323,6 +9326,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="20">
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="B28:F28"/>
@@ -9337,12 +9346,6 @@
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="H36:J36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
@@ -9382,76 +9385,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="74"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="83" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="84"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="77"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="85" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="86"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="79"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="87" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="88"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="89" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="90"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="83"/>
     </row>
     <row r="5" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="84" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
       <c r="L5" s="29"/>
@@ -9481,7 +9484,7 @@
       <c r="I6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="63" t="s">
         <v>231</v>
       </c>
       <c r="K6" s="93"/>
@@ -9939,34 +9942,34 @@
     </row>
     <row r="23" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="19"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -9978,29 +9981,29 @@
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="67" t="s">
+      <c r="G26" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
       <c r="F27" s="24"/>
       <c r="G27" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="H27" s="68" t="s">
+      <c r="H27" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -10014,11 +10017,11 @@
       <c r="G28" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="H28" s="69" t="s">
+      <c r="H28" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -10060,33 +10063,33 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
       <c r="F32" s="25"/>
       <c r="G32" s="23"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
       <c r="F33" s="25"/>
       <c r="G33" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="H33" s="63" t="s">
+      <c r="H33" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="2:26" ht="17.25" x14ac:dyDescent="0.3">
@@ -10190,6 +10193,13 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="20">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H28:J28"/>
     <mergeCell ref="B1:E4"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="G26:I26"/>
@@ -10203,13 +10213,6 @@
     <mergeCell ref="F2:L2"/>
     <mergeCell ref="F3:L3"/>
     <mergeCell ref="F4:L4"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H28:J28"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:A20 D7:D20">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
